--- a/biology/Botanique/Enceliopsis_nudicaulis/Enceliopsis_nudicaulis.xlsx
+++ b/biology/Botanique/Enceliopsis_nudicaulis/Enceliopsis_nudicaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enceliopsis nudicaulis est une espèce de plantes à fleurs de la famille des Asteraceae (ou Composées).
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante de 15 à 45 cm de haut présente une ou plusieurs tiges florales dépourvues de feuilles qui pousse(nt) à partir d'une touffe de feuilles charnues situées à la base. Les feuilles, couvertes de nombreux poils gris et courts, mesurent de 1,3 à 6,3 cm de long. Leur base fuselée rejoint un pétiole de longueur variable[1]. Leur surface est plus ou moins ondulée mais leur forme globale est ovale.
-Appareil reproducteur
-La floraison a lieu entre mai et août.
-L'inflorescence est un grand capitule jaune de 7,5 à 10 cm de diamètre. Chaque capitule est constitué d'environ 20 fleuron ligulés entourant un large centre de nombreux fleurons tubulaires, tous enveloppés dans une petite bractée coriace[1]. 
-Les fruits sont des akènes aplatis portant sur leurs côtés des poils qui dissimulent presque le pappus, constitué de deux soies raides, situées au sommet.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante de 15 à 45 cm de haut présente une ou plusieurs tiges florales dépourvues de feuilles qui pousse(nt) à partir d'une touffe de feuilles charnues situées à la base. Les feuilles, couvertes de nombreux poils gris et courts, mesurent de 1,3 à 6,3 cm de long. Leur base fuselée rejoint un pétiole de longueur variable. Leur surface est plus ou moins ondulée mais leur forme globale est ovale.
 </t>
         </is>
       </c>
@@ -544,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enceliopsis nudicaulis vit dans l'ouest des États-Unis, de l'Idaho jusqu'au Nevada, à l'Utah et à l'Arizona. 
-Elle pousse dans les zones désertiques, parmi les buissons et broussailles.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mai et août.
+L'inflorescence est un grand capitule jaune de 7,5 à 10 cm de diamètre. Chaque capitule est constitué d'environ 20 fleuron ligulés entourant un large centre de nombreux fleurons tubulaires, tous enveloppés dans une petite bractée coriace. 
+Les fruits sont des akènes aplatis portant sur leurs côtés des poils qui dissimulent presque le pappus, constitué de deux soies raides, situées au sommet.
 </t>
         </is>
       </c>
@@ -576,10 +596,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enceliopsis nudicaulis vit dans l'ouest des États-Unis, de l'Idaho jusqu'au Nevada, à l'Utah et à l'Arizona. 
+Elle pousse dans les zones désertiques, parmi les buissons et broussailles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Enceliopsis_nudicaulis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enceliopsis_nudicaulis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Enceliopsis nudicaulis et l'homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le côté décoratif de cette plante, aussi bien des feuilles que des fleurs, fait qu'elle est parfois utilisée à des fins ornementales dans les jardins des zones arides des États-Unis.
 </t>
